--- a/output_additional_column/1970.xlsx
+++ b/output_additional_column/1970.xlsx
@@ -490,7 +490,7 @@
         <v>40548</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>67353</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>74854</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>36138</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>23626</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>90765</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>50447</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>38853</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>32303</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>77622</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>44159</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>38097</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>72940</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>22070</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="16">
@@ -824,7 +824,7 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +848,7 @@
         <v>84835</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="18">
@@ -872,7 +872,7 @@
         <v>29548</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="19">
@@ -896,7 +896,7 @@
         <v>22585</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="20">
@@ -920,7 +920,7 @@
         <v>30015</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="21">
@@ -944,7 +944,7 @@
         <v>31880</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="22">
@@ -968,7 +968,7 @@
         <v>15315</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="23">
@@ -992,7 +992,7 @@
         <v>62466</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="24">
@@ -1016,7 +1016,7 @@
         <v>38200</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="25">
@@ -1040,7 +1040,7 @@
         <v>64413</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1064,7 @@
         <v>13260</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="27">
@@ -1088,7 +1088,7 @@
         <v>69084</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="28">
@@ -1112,7 +1112,7 @@
         <v>62466</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="29">
@@ -1136,7 +1136,7 @@
         <v>105471</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="30">
@@ -1160,7 +1160,7 @@
         <v>55282</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="31">
@@ -1184,7 +1184,7 @@
         <v>66731</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="32">
@@ -1208,7 +1208,7 @@
         <v>61209</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
         <v>35682</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="34">
@@ -1256,7 +1256,7 @@
         <v>58710</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="35">
@@ -1280,7 +1280,7 @@
         <v>33697</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="36">
@@ -1304,7 +1304,7 @@
         <v>20587</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="37">
@@ -1328,7 +1328,7 @@
         <v>61872</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="38">
@@ -1352,7 +1352,7 @@
         <v>65968</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="39">
@@ -1376,7 +1376,7 @@
         <v>81205</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="40">
@@ -1400,7 +1400,7 @@
         <v>82072</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="41">
@@ -1424,7 +1424,7 @@
         <v>54137</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="42">
@@ -1448,7 +1448,7 @@
         <v>67536</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="43">
@@ -1472,7 +1472,7 @@
         <v>25959</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="44">
@@ -1496,7 +1496,7 @@
         <v>75345</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="45">
@@ -1520,7 +1520,7 @@
         <v>24163</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +1544,7 @@
         <v>53187</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="47">
@@ -1568,7 +1568,7 @@
         <v>15315</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="48">
@@ -1592,7 +1592,7 @@
         <v>78579</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="49">
@@ -1616,7 +1616,7 @@
         <v>55158</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="50">
@@ -1640,7 +1640,7 @@
         <v>19656</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="51">
@@ -1664,7 +1664,7 @@
         <v>33986</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="52">
@@ -1688,7 +1688,7 @@
         <v>44267</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="53">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="54">
@@ -1734,7 +1734,7 @@
         <v>44511</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="55">
@@ -1758,7 +1758,7 @@
         <v>28164</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="56">
@@ -1782,7 +1782,7 @@
         <v>93790</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="57">
@@ -1806,7 +1806,7 @@
         <v>67419</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="58">
@@ -1830,7 +1830,7 @@
         <v>23162</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="59">
@@ -1854,7 +1854,7 @@
         <v>59892</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="60">
@@ -1878,7 +1878,7 @@
         <v>79419</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="61">
@@ -1902,7 +1902,7 @@
         <v>27242</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="62">
@@ -1926,7 +1926,7 @@
         <v>69084</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="63">
@@ -1950,7 +1950,7 @@
         <v>69016</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="64">
@@ -1974,7 +1974,7 @@
         <v>80336</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="65">
@@ -1998,7 +1998,7 @@
         <v>67384</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="66">
@@ -2022,7 +2022,7 @@
         <v>70617</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="67">
@@ -2046,7 +2046,7 @@
         <v>24206</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="68">
@@ -2070,7 +2070,7 @@
         <v>22979</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="69">
@@ -2094,7 +2094,7 @@
         <v>63684</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="70">
@@ -2118,7 +2118,7 @@
         <v>83273</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="71">
@@ -2142,7 +2142,7 @@
         <v>43020</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="72">
@@ -2166,7 +2166,7 @@
         <v>76467</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="73">
@@ -2190,7 +2190,7 @@
         <v>64713</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="74">
@@ -2214,7 +2214,7 @@
         <v>72967</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="75">
@@ -2238,7 +2238,7 @@
         <v>20587</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="76">
@@ -2262,7 +2262,7 @@
         <v>65706</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="77">
@@ -2286,7 +2286,7 @@
         <v>57642</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
     <row r="78">
@@ -2310,7 +2310,7 @@
         <v>44802</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44703.7671112521</v>
+        <v>44703.79033061991</v>
       </c>
     </row>
   </sheetData>
